--- a/natmiOut/OldD2/LR-pairs_lrc2p/Inhba-Acvr2a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Inhba-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H2">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I2">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J2">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N2">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O2">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P2">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q2">
-        <v>56.34997288388048</v>
+        <v>1.40617240550475</v>
       </c>
       <c r="R2">
-        <v>56.34997288388048</v>
+        <v>5.624689622019</v>
       </c>
       <c r="S2">
-        <v>0.09307064088549205</v>
+        <v>0.001578104590775073</v>
       </c>
       <c r="T2">
-        <v>0.09307064088549205</v>
+        <v>0.0009425516883113392</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H3">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I3">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J3">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N3">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O3">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P3">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q3">
-        <v>130.605058504215</v>
+        <v>3.465658895436833</v>
       </c>
       <c r="R3">
-        <v>130.605058504215</v>
+        <v>20.793953372621</v>
       </c>
       <c r="S3">
-        <v>0.215714327368411</v>
+        <v>0.003889403739924878</v>
       </c>
       <c r="T3">
-        <v>0.215714327368411</v>
+        <v>0.003484525756106687</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H4">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I4">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J4">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N4">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O4">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P4">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q4">
-        <v>29.90363868029104</v>
+        <v>0.7805005894399999</v>
       </c>
       <c r="R4">
-        <v>29.90363868029104</v>
+        <v>4.683003536639999</v>
       </c>
       <c r="S4">
-        <v>0.04939045529832059</v>
+        <v>0.0008759321107967467</v>
       </c>
       <c r="T4">
-        <v>0.04939045529832059</v>
+        <v>0.0007847495926794971</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H5">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I5">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J5">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N5">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O5">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P5">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q5">
-        <v>31.7002810653038</v>
+        <v>0.7994290577281666</v>
       </c>
       <c r="R5">
-        <v>31.7002810653038</v>
+        <v>4.796574346369</v>
       </c>
       <c r="S5">
-        <v>0.05235788633080313</v>
+        <v>0.0008971749559734546</v>
       </c>
       <c r="T5">
-        <v>0.05235788633080313</v>
+        <v>0.0008037811065311947</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -788,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H6">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I6">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J6">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N6">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O6">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P6">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q6">
-        <v>52.68004071682939</v>
+        <v>1.390665329323833</v>
       </c>
       <c r="R6">
-        <v>52.68004071682939</v>
+        <v>8.343991975942998</v>
       </c>
       <c r="S6">
-        <v>0.08700918386407375</v>
+        <v>0.001560701470066116</v>
       </c>
       <c r="T6">
-        <v>0.08700918386407375</v>
+        <v>0.001398236036597217</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H7">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I7">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J7">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.1958908183617</v>
+        <v>17.446105</v>
       </c>
       <c r="N7">
-        <v>15.1958908183617</v>
+        <v>34.89221</v>
       </c>
       <c r="O7">
-        <v>0.2107621351095285</v>
+        <v>0.2265518959828062</v>
       </c>
       <c r="P7">
-        <v>0.2107621351095285</v>
+        <v>0.1719711468337415</v>
       </c>
       <c r="Q7">
-        <v>80.44440836536447</v>
+        <v>2.2971373684025</v>
       </c>
       <c r="R7">
-        <v>80.44440836536447</v>
+        <v>9.188549473609999</v>
       </c>
       <c r="S7">
-        <v>0.1328663042597568</v>
+        <v>0.002578007513535089</v>
       </c>
       <c r="T7">
-        <v>0.1328663042597568</v>
+        <v>0.001539761907142281</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H8">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I8">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J8">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N8">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O8">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P8">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q8">
-        <v>33.0364269602212</v>
+        <v>64.80480456202599</v>
       </c>
       <c r="R8">
-        <v>33.0364269602212</v>
+        <v>388.828827372156</v>
       </c>
       <c r="S8">
-        <v>0.0545647366342228</v>
+        <v>0.07272846429304301</v>
       </c>
       <c r="T8">
-        <v>0.0545647366342228</v>
+        <v>0.06515759843334977</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H9">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I9">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J9">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N9">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O9">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P9">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q9">
-        <v>76.57012514985948</v>
+        <v>159.7182155745782</v>
       </c>
       <c r="R9">
-        <v>76.57012514985948</v>
+        <v>1437.463940171204</v>
       </c>
       <c r="S9">
-        <v>0.1264673300742323</v>
+        <v>0.1792469033256059</v>
       </c>
       <c r="T9">
-        <v>0.1264673300742323</v>
+        <v>0.2408815694275942</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H10">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I10">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J10">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N10">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O10">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P10">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q10">
-        <v>17.53167436552365</v>
+        <v>35.97011857237333</v>
       </c>
       <c r="R10">
-        <v>17.53167436552365</v>
+        <v>323.73106715136</v>
       </c>
       <c r="S10">
-        <v>0.02895625473249871</v>
+        <v>0.0403681718028098</v>
       </c>
       <c r="T10">
-        <v>0.02895625473249871</v>
+        <v>0.05424890694552091</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H11">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I11">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J11">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N11">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O11">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P11">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q11">
-        <v>18.58499598909254</v>
+        <v>36.84245519572845</v>
       </c>
       <c r="R11">
-        <v>18.58499598909254</v>
+        <v>331.582096761556</v>
       </c>
       <c r="S11">
-        <v>0.0306959772833173</v>
+        <v>0.04134716870577049</v>
       </c>
       <c r="T11">
-        <v>0.0306959772833173</v>
+        <v>0.05556453531105841</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H12">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I12">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J12">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N12">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O12">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P12">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q12">
-        <v>30.88484746903688</v>
+        <v>64.09014607683687</v>
       </c>
       <c r="R12">
-        <v>30.88484746903688</v>
+        <v>576.8113146915319</v>
       </c>
       <c r="S12">
-        <v>0.05101107241909965</v>
+        <v>0.07192642477648142</v>
       </c>
       <c r="T12">
-        <v>0.05101107241909965</v>
+        <v>0.09665857407869433</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1177 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.068161333333333</v>
+      </c>
+      <c r="H13">
+        <v>18.204484</v>
+      </c>
+      <c r="I13">
+        <v>0.5244270828216987</v>
+      </c>
+      <c r="J13">
+        <v>0.6189532915869436</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.446105</v>
+      </c>
+      <c r="N13">
+        <v>34.89221</v>
+      </c>
+      <c r="O13">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P13">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q13">
+        <v>105.8657797782733</v>
+      </c>
+      <c r="R13">
+        <v>635.19467866964</v>
+      </c>
+      <c r="S13">
+        <v>0.118809949917988</v>
+      </c>
+      <c r="T13">
+        <v>0.1064421073907259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.170058</v>
+      </c>
+      <c r="I14">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J14">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>10.6794795</v>
+      </c>
+      <c r="N14">
+        <v>21.358959</v>
+      </c>
+      <c r="O14">
+        <v>0.1386817475209803</v>
+      </c>
+      <c r="P14">
+        <v>0.1052706227093344</v>
+      </c>
+      <c r="Q14">
+        <v>0.6053769749369999</v>
+      </c>
+      <c r="R14">
+        <v>3.632261849622</v>
+      </c>
+      <c r="S14">
+        <v>0.0006793961960551207</v>
+      </c>
+      <c r="T14">
+        <v>0.0006086726146359653</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.170058</v>
+      </c>
+      <c r="I15">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J15">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>26.32069366666667</v>
+      </c>
+      <c r="N15">
+        <v>78.962081</v>
+      </c>
+      <c r="O15">
+        <v>0.3417956646349414</v>
+      </c>
+      <c r="P15">
+        <v>0.3891756820777128</v>
+      </c>
+      <c r="Q15">
+        <v>1.492014841188666</v>
+      </c>
+      <c r="R15">
+        <v>13.428133570698</v>
+      </c>
+      <c r="S15">
+        <v>0.001674442949646136</v>
+      </c>
+      <c r="T15">
+        <v>0.002250205934632249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.170058</v>
+      </c>
+      <c r="I16">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J16">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.92768</v>
+      </c>
+      <c r="N16">
+        <v>17.78304</v>
+      </c>
+      <c r="O16">
+        <v>0.07697575721224656</v>
+      </c>
+      <c r="P16">
+        <v>0.08764620478296728</v>
+      </c>
+      <c r="Q16">
+        <v>0.3360164684799999</v>
+      </c>
+      <c r="R16">
+        <v>3.02414821632</v>
+      </c>
+      <c r="S16">
+        <v>0.0003771010790771234</v>
+      </c>
+      <c r="T16">
+        <v>0.000506768586098974</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.170058</v>
+      </c>
+      <c r="I17">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J17">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.071436333333334</v>
+      </c>
+      <c r="N17">
+        <v>18.214309</v>
+      </c>
+      <c r="O17">
+        <v>0.07884255039480526</v>
+      </c>
+      <c r="P17">
+        <v>0.08977177448817772</v>
+      </c>
+      <c r="Q17">
+        <v>0.3441654399913333</v>
+      </c>
+      <c r="R17">
+        <v>3.097488959922</v>
+      </c>
+      <c r="S17">
+        <v>0.0003862464223520928</v>
+      </c>
+      <c r="T17">
+        <v>0.0005190585872100505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.170058</v>
+      </c>
+      <c r="I18">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J18">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10.56170766666667</v>
+      </c>
+      <c r="N18">
+        <v>31.685123</v>
+      </c>
+      <c r="O18">
+        <v>0.1371523842542203</v>
+      </c>
+      <c r="P18">
+        <v>0.1561645691080663</v>
+      </c>
+      <c r="Q18">
+        <v>0.5987009607926665</v>
+      </c>
+      <c r="R18">
+        <v>5.388308647133999</v>
+      </c>
+      <c r="S18">
+        <v>0.000671903908105216</v>
+      </c>
+      <c r="T18">
+        <v>0.0009029403849444235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.170058</v>
+      </c>
+      <c r="I19">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J19">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>17.446105</v>
+      </c>
+      <c r="N19">
+        <v>34.89221</v>
+      </c>
+      <c r="O19">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P19">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q19">
+        <v>0.9889499080299998</v>
+      </c>
+      <c r="R19">
+        <v>5.93369944818</v>
+      </c>
+      <c r="S19">
+        <v>0.00110986845126471</v>
+      </c>
+      <c r="T19">
+        <v>0.0009943336981510743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.434455</v>
+      </c>
+      <c r="I20">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J20">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.6794795</v>
+      </c>
+      <c r="N20">
+        <v>21.358959</v>
+      </c>
+      <c r="O20">
+        <v>0.1386817475209803</v>
+      </c>
+      <c r="P20">
+        <v>0.1052706227093344</v>
+      </c>
+      <c r="Q20">
+        <v>1.5465844220575</v>
+      </c>
+      <c r="R20">
+        <v>9.279506532345</v>
+      </c>
+      <c r="S20">
+        <v>0.001735684733191778</v>
+      </c>
+      <c r="T20">
+        <v>0.001555003944487576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.10362367679137</v>
-      </c>
-      <c r="H13">
-        <v>3.10362367679137</v>
-      </c>
-      <c r="I13">
-        <v>0.3695912019931427</v>
-      </c>
-      <c r="J13">
-        <v>0.3695912019931427</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>15.1958908183617</v>
-      </c>
-      <c r="N13">
-        <v>15.1958908183617</v>
-      </c>
-      <c r="O13">
-        <v>0.2107621351095285</v>
-      </c>
-      <c r="P13">
-        <v>0.2107621351095285</v>
-      </c>
-      <c r="Q13">
-        <v>47.16232653380396</v>
-      </c>
-      <c r="R13">
-        <v>47.16232653380396</v>
-      </c>
-      <c r="S13">
-        <v>0.07789583084977179</v>
-      </c>
-      <c r="T13">
-        <v>0.07789583084977179</v>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.434455</v>
+      </c>
+      <c r="I21">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J21">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.32069366666667</v>
+      </c>
+      <c r="N21">
+        <v>78.962081</v>
+      </c>
+      <c r="O21">
+        <v>0.3417956646349414</v>
+      </c>
+      <c r="P21">
+        <v>0.3891756820777128</v>
+      </c>
+      <c r="Q21">
+        <v>3.811718988983889</v>
+      </c>
+      <c r="R21">
+        <v>34.305470900855</v>
+      </c>
+      <c r="S21">
+        <v>0.004277776474429383</v>
+      </c>
+      <c r="T21">
+        <v>0.00574870467329178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.434455</v>
+      </c>
+      <c r="I22">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J22">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.92768</v>
+      </c>
+      <c r="N22">
+        <v>17.78304</v>
+      </c>
+      <c r="O22">
+        <v>0.07697575721224656</v>
+      </c>
+      <c r="P22">
+        <v>0.08764620478296728</v>
+      </c>
+      <c r="Q22">
+        <v>0.8584367381333332</v>
+      </c>
+      <c r="R22">
+        <v>7.7259306432</v>
+      </c>
+      <c r="S22">
+        <v>0.0009633974838611041</v>
+      </c>
+      <c r="T22">
+        <v>0.001294665032363251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.434455</v>
+      </c>
+      <c r="I23">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J23">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.071436333333334</v>
+      </c>
+      <c r="N23">
+        <v>18.214309</v>
+      </c>
+      <c r="O23">
+        <v>0.07884255039480526</v>
+      </c>
+      <c r="P23">
+        <v>0.08977177448817772</v>
+      </c>
+      <c r="Q23">
+        <v>0.8792552907327778</v>
+      </c>
+      <c r="R23">
+        <v>7.913297616595</v>
+      </c>
+      <c r="S23">
+        <v>0.0009867615132659359</v>
+      </c>
+      <c r="T23">
+        <v>0.001326062863883748</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.434455</v>
+      </c>
+      <c r="I24">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J24">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>10.56170766666667</v>
+      </c>
+      <c r="N24">
+        <v>31.685123</v>
+      </c>
+      <c r="O24">
+        <v>0.1371523842542203</v>
+      </c>
+      <c r="P24">
+        <v>0.1561645691080663</v>
+      </c>
+      <c r="Q24">
+        <v>1.529528901440555</v>
+      </c>
+      <c r="R24">
+        <v>13.765760112965</v>
+      </c>
+      <c r="S24">
+        <v>0.001716543840312433</v>
+      </c>
+      <c r="T24">
+        <v>0.002306783361800265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.434455</v>
+      </c>
+      <c r="I25">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J25">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>17.446105</v>
+      </c>
+      <c r="N25">
+        <v>34.89221</v>
+      </c>
+      <c r="O25">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P25">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q25">
+        <v>2.526515849258333</v>
+      </c>
+      <c r="R25">
+        <v>15.15909509555</v>
+      </c>
+      <c r="S25">
+        <v>0.002835432017277692</v>
+      </c>
+      <c r="T25">
+        <v>0.002540270065684796</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.1696935</v>
+      </c>
+      <c r="H26">
+        <v>10.339387</v>
+      </c>
+      <c r="I26">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J26">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.6794795</v>
+      </c>
+      <c r="N26">
+        <v>21.358959</v>
+      </c>
+      <c r="O26">
+        <v>0.1386817475209803</v>
+      </c>
+      <c r="P26">
+        <v>0.1052706227093344</v>
+      </c>
+      <c r="Q26">
+        <v>55.20963575453325</v>
+      </c>
+      <c r="R26">
+        <v>220.838543018133</v>
+      </c>
+      <c r="S26">
+        <v>0.06196009770791525</v>
+      </c>
+      <c r="T26">
+        <v>0.03700679602854973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5.1696935</v>
+      </c>
+      <c r="H27">
+        <v>10.339387</v>
+      </c>
+      <c r="I27">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J27">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>26.32069366666667</v>
+      </c>
+      <c r="N27">
+        <v>78.962081</v>
+      </c>
+      <c r="O27">
+        <v>0.3417956646349414</v>
+      </c>
+      <c r="P27">
+        <v>0.3891756820777128</v>
+      </c>
+      <c r="Q27">
+        <v>136.0699189640578</v>
+      </c>
+      <c r="R27">
+        <v>816.419513784347</v>
+      </c>
+      <c r="S27">
+        <v>0.152707138145335</v>
+      </c>
+      <c r="T27">
+        <v>0.1368106762860878</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5.1696935</v>
+      </c>
+      <c r="H28">
+        <v>10.339387</v>
+      </c>
+      <c r="I28">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J28">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.92768</v>
+      </c>
+      <c r="N28">
+        <v>17.78304</v>
+      </c>
+      <c r="O28">
+        <v>0.07697575721224656</v>
+      </c>
+      <c r="P28">
+        <v>0.08764620478296728</v>
+      </c>
+      <c r="Q28">
+        <v>30.64428876608</v>
+      </c>
+      <c r="R28">
+        <v>183.86573259648</v>
+      </c>
+      <c r="S28">
+        <v>0.03439115473570178</v>
+      </c>
+      <c r="T28">
+        <v>0.03081111462630463</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5.1696935</v>
+      </c>
+      <c r="H29">
+        <v>10.339387</v>
+      </c>
+      <c r="I29">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J29">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>6.071436333333334</v>
+      </c>
+      <c r="N29">
+        <v>18.214309</v>
+      </c>
+      <c r="O29">
+        <v>0.07884255039480526</v>
+      </c>
+      <c r="P29">
+        <v>0.08977177448817772</v>
+      </c>
+      <c r="Q29">
+        <v>31.38746494809717</v>
+      </c>
+      <c r="R29">
+        <v>188.324789688583</v>
+      </c>
+      <c r="S29">
+        <v>0.03522519879744328</v>
+      </c>
+      <c r="T29">
+        <v>0.03155833661949431</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5.1696935</v>
+      </c>
+      <c r="H30">
+        <v>10.339387</v>
+      </c>
+      <c r="I30">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J30">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>10.56170766666667</v>
+      </c>
+      <c r="N30">
+        <v>31.685123</v>
+      </c>
+      <c r="O30">
+        <v>0.1371523842542203</v>
+      </c>
+      <c r="P30">
+        <v>0.1561645691080663</v>
+      </c>
+      <c r="Q30">
+        <v>54.60079147326682</v>
+      </c>
+      <c r="R30">
+        <v>327.604748839601</v>
+      </c>
+      <c r="S30">
+        <v>0.06127681025925508</v>
+      </c>
+      <c r="T30">
+        <v>0.05489803524603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5.1696935</v>
+      </c>
+      <c r="H31">
+        <v>10.339387</v>
+      </c>
+      <c r="I31">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J31">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>17.446105</v>
+      </c>
+      <c r="N31">
+        <v>34.89221</v>
+      </c>
+      <c r="O31">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P31">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q31">
+        <v>90.1910156188175</v>
+      </c>
+      <c r="R31">
+        <v>360.76406247527</v>
+      </c>
+      <c r="S31">
+        <v>0.1012186380827407</v>
+      </c>
+      <c r="T31">
+        <v>0.06045467377203745</v>
       </c>
     </row>
   </sheetData>
